--- a/VersionRecords/Version 5.2.10.3 20170213/版本Bug和特性计划及评审表v5.2.10.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.10.3 20170213/版本Bug和特性计划及评审表v5.2.10.3_马丁组.xlsx
@@ -225,7 +225,7 @@
     <t xml:space="preserve">sysconfig.zhima.zhima_sdk_appId=1001708
 sysconfig.zhima.zhima_sdk_privateKey=MIIEvgIBADANBgkqhkiG9w0BAQEFAASCBKgwggSkAgEAAoIBAQDMbf0SF0fgenwQKEUX0bPVv1VXkC/36JGvyA2ZZpMhIxLSbXmutS0Fbm3XUfWhHlz3O6b2BmRRaFDsImMUK5LivBesdtZOdSQLQ/+XSJOuRHy6B16JkoIshLkSJT28lnVnXZmgySxY+rEiwNPxxj20duv4FQPgYTDK/vcSdsPLISp0Xu7+ESen5/fo5JS2lXaXfgsQb+N3Lm9zOBXa2yJnDANSGQ1znwiKrwk2YSjxolrRtWUrHUksarmtcJSv841FyvQVajV6j8kM2CgkARjDKnZEGnzsOgKfVD85KJw6s5G4e3656EVnrjA0asah5BVCjdyDTBPMHM7M6QLqyZKJAgMBAAECggEBALuWqkUxi8lXXATPjydeTLF1k3B4ZSwOA7HT13bOg3BC6QCjaKeCpT94p96P3N/uJszPtlPIZcG2AZvNqjFWEsFwbCDcI6d3Io4b5awC81FUk0d5f6yp/j2vxMv71Hz7a9xgLZs3PzSfRnBnlZUknna9MadCUX5ScR21fS86QExiDNfxcYRE0viqUG2LiwfrtRvi3eMUZPXPcJmilNxbGOGF490ucgKcUQqi8kbqLRllgavf/p1lmyrS77Dw6kkQIM6YpLO4nR8wTHWoyi625UCAjE1VJUWVsdGH3BzZj/pKXmwkGFDiq7073JclTvOS1TqAxNse+h50h4BqFWKaaikCgYEA6EORivrbL88HhhEGVdiNxYBdwkACoLcgYx75kzltxU0vL2EFzwsuBbr+AzhVQeteEeeVp0vJtlyThORyxosuanLwimnv2AMcbzo52AoputurkxZtgziE5WCrO5A7s8avsEi6NcrXT19+Gilf9Cssq9I+vVu7C0s4TctsYQljJYsCgYEA4VI54Az1Jc58B2NMSIqMsG++8Gy0OzBq7EUtpqPG9Qa6mvAEpWlO90nDACTeBZLaC7Hd1au/zELGnoSW4JWilnirWgupJzE5HklHG3IMNAtzOFvoX46xr4xiNPodK0CxWpFqi3tPIDWizRfQNooEnqKtKtX9DOhSyo+D2CcYMrsCgYAYYf+Fd5BLFJDVojPoDzPS6AbvvYiJFrBvt3C74+uCKvgpISZa9fF+6IKCFAffQ7Y8avNq/KnQWyeha9ogvbvBsQ9PeI+VPb5ebt5jr61x0F3SsygL/oL1EZDoT9v0o4cOGpRx0TmJO50hYfaQy3eFEi1D871PEjZ29EQMa8/cwQKBgQCvUHsXiP11XSPD288O4j51SX0XNH1HUHThQTIz5lp3a7TluLrkuPtoDUxcYFMfoxNk5g/koK2rEInZ7PA37jWDPoCUn14N0I7QsdNR13sHQ6FyyJAVScGXBXOkJLdtX/ier2ZnAJqgRRtW2KB4zwqpI4n5OmaaFGnWkbPUCxcY4QKBgEay2X6WJ+d2QizMv6QOtSz1nmg5nsKAdLcQHO0ir02BlRp8yFBA8nnbJGyNUH0DHjB1dvDaGGna/Zd2u0TT5VRr4cKcvM8vYHwGabPcPLmjsvSxiyNmUvYMNHFtOZFmBp+jVx0upA5iy448e0Dn1GZN2ZvAk5cziTzx3xMerRM9
 sysconfig.zhima.zhima_sdk_publicKey=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAshVdeYHvFwZdF08NUVYe+PqGA+QiUBLdf4w7XDMVOQDSXFmkk6zxRRlHZ97OS/NuajlayX2LTjDdPf/omkWXLqHoxHKlimeiLUvb/8KqkiOeExF1d6zlbOzcIoafxC6dzrFckVYLEWbiEGlSDgxOxU3Q8QuDbwosRCMRMDP6vZLrr6HKtAcyfQ5ZyDrAJd2hN4eeJF/6GbP9rdBf43KYaCyDH8FWciw4oCA3i17KXr81eRlNEGaDQ9DiROFGR2QDAVuzdD0NYBDBxUaTw/4B+I+Y1iqb0EU4PqAOaDjpwn0NOXoW+ARlKNDVQOXSHQI1PSxcBOW61AdLRU4GHSYfNQIDAQAB
-sysconfig.zhima.zhima_callbackUrl=redirect:http://ppc.mogoroom.com:9093/mogoroom-partner/zmxy/processSDKCallBack
+sysconfig.zhima.callbackUrl=redirect:http://ppc.mogoroom.com:9093/mogoroom-partner/zmxy/processSDKCallBack
 </t>
   </si>
   <si>
@@ -238,7 +238,7 @@
     <t>李亚林</t>
   </si>
   <si>
-    <t>除了sysconfig.zhima.zhima_callbackUrl都是替换</t>
+    <t>除了sysconfig.zhima.callbackUrll都是替换</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -270,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -344,19 +344,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
@@ -375,50 +362,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,9 +390,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,9 +427,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,8 +447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,14 +457,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -505,46 +514,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -555,9 +530,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,21 +541,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,7 +587,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +677,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,37 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,121 +749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,20 +923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,17 +953,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,26 +1012,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,172 +1025,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1366,49 +1316,49 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1429,28 +1379,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1462,10 +1412,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,13 +1430,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,7 +1448,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,7 +1531,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -5825,11 +5774,11 @@
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
       <formula1>"能,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
-      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
@@ -5837,14 +5786,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
-      <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6502,14 +6451,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -6525,8 +6474,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6840,11 +6789,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I8 I5:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -7152,14 +7101,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -7469,11 +7418,11 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
